--- a/VTU EV Internship Offer Letters/offer_accepted.xlsx
+++ b/VTU EV Internship Offer Letters/offer_accepted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004FB1B-260F-4C6A-BEB4-B4B9F44CABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39EC98-D9A4-475B-BCC2-AAED491F66BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5341" uniqueCount="2341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5649" uniqueCount="2431">
   <si>
     <t>Name</t>
   </si>
@@ -7043,6 +7043,276 @@
   </si>
   <si>
     <t>8073914607</t>
+  </si>
+  <si>
+    <t>Chinmayee V</t>
+  </si>
+  <si>
+    <t>chinmayeev29@gmail.com</t>
+  </si>
+  <si>
+    <t>Likhitha M P</t>
+  </si>
+  <si>
+    <t>likhithamp2@gmail.com</t>
+  </si>
+  <si>
+    <t>Akbar Bismilla Mulla</t>
+  </si>
+  <si>
+    <t>akbarmulla71704@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavan km</t>
+  </si>
+  <si>
+    <t>Pavankm678@gmail.com</t>
+  </si>
+  <si>
+    <t>Sachidanand</t>
+  </si>
+  <si>
+    <t>sachugavimath@gmail.com</t>
+  </si>
+  <si>
+    <t>Chinmayi M</t>
+  </si>
+  <si>
+    <t>chinmayi0807@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakshitha H M</t>
+  </si>
+  <si>
+    <t>rakshithahm040@gmail.com</t>
+  </si>
+  <si>
+    <t>Varnika K S</t>
+  </si>
+  <si>
+    <t>varnikagowda164@gmail.com</t>
+  </si>
+  <si>
+    <t>R.Deepa Lakshmi</t>
+  </si>
+  <si>
+    <t>ramsagardeepa6@gmail.com</t>
+  </si>
+  <si>
+    <t>K M Kavya</t>
+  </si>
+  <si>
+    <t>kmkavya331@gmail.com</t>
+  </si>
+  <si>
+    <t>B Ashok Achar</t>
+  </si>
+  <si>
+    <t>ashokachar6360@gmail.com</t>
+  </si>
+  <si>
+    <t>Sri Harsha</t>
+  </si>
+  <si>
+    <t>harshasri6363@gmail.com</t>
+  </si>
+  <si>
+    <t>Vijayalakshmi L</t>
+  </si>
+  <si>
+    <t>vijjushekar2673@gmail.com</t>
+  </si>
+  <si>
+    <t>Samiha</t>
+  </si>
+  <si>
+    <t>Vadlamudisamiha29@gmail.com</t>
+  </si>
+  <si>
+    <t>Nischal J</t>
+  </si>
+  <si>
+    <t>nischalj77@gmail.com</t>
+  </si>
+  <si>
+    <t>Sourish Mitra</t>
+  </si>
+  <si>
+    <t>sourishjuly20@gmail.com</t>
+  </si>
+  <si>
+    <t>PREETHIKA VG</t>
+  </si>
+  <si>
+    <t>Uzumakipreethi@gmail.com</t>
+  </si>
+  <si>
+    <t>Karthika M Nair</t>
+  </si>
+  <si>
+    <t>Kn04236@gmail.com</t>
+  </si>
+  <si>
+    <t>Sayekha Y</t>
+  </si>
+  <si>
+    <t>sayekhatarannum@gmail.com</t>
+  </si>
+  <si>
+    <t>Yasir Abrar</t>
+  </si>
+  <si>
+    <t>yasirabrar.j22ec056.nc@cambridge.edu.in</t>
+  </si>
+  <si>
+    <t>VISHWAS KONDA</t>
+  </si>
+  <si>
+    <t>vishwaskonda47@gmail.com</t>
+  </si>
+  <si>
+    <t>Shravya M S</t>
+  </si>
+  <si>
+    <t>shravyams333@gmail.com</t>
+  </si>
+  <si>
+    <t>Chaithra shree P</t>
+  </si>
+  <si>
+    <t>Chaithrashreep00@gmail.com</t>
+  </si>
+  <si>
+    <t>Web Development for EV</t>
+  </si>
+  <si>
+    <t>Shaista Banu</t>
+  </si>
+  <si>
+    <t>banushaista2804@gmail.com</t>
+  </si>
+  <si>
+    <t>Naziya Fathima</t>
+  </si>
+  <si>
+    <t>naziyafathima970@gmail.com</t>
+  </si>
+  <si>
+    <t>UDAYKUMAR HIREMATH</t>
+  </si>
+  <si>
+    <t>udayhiremathfc07@gmail.com</t>
+  </si>
+  <si>
+    <t>Vishrutha Y</t>
+  </si>
+  <si>
+    <t>vishruthay@gmail.com</t>
+  </si>
+  <si>
+    <t>Veeresh</t>
+  </si>
+  <si>
+    <t>veereshrathod96@gmail.com</t>
+  </si>
+  <si>
+    <t>DHANUSHREE H T</t>
+  </si>
+  <si>
+    <t>dhanureddy451@gmail.com</t>
+  </si>
+  <si>
+    <t>Nayana K B</t>
+  </si>
+  <si>
+    <t>nayanakognur@gmail.com</t>
+  </si>
+  <si>
+    <t>Data Science for EV</t>
+  </si>
+  <si>
+    <t>Venugopal M N</t>
+  </si>
+  <si>
+    <t>venu914828@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinodkrishna K</t>
+  </si>
+  <si>
+    <t>vinodakrishna789@gmail.com</t>
+  </si>
+  <si>
+    <t>anushreevappa@gmail.com</t>
+  </si>
+  <si>
+    <t>Shirisha C N</t>
+  </si>
+  <si>
+    <t>shirishacn2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Shreya K Khened</t>
+  </si>
+  <si>
+    <t>shreyakhened@gmail.com</t>
+  </si>
+  <si>
+    <t>Manjushree D S</t>
+  </si>
+  <si>
+    <t>anumanju1614@gmail.com</t>
+  </si>
+  <si>
+    <t>RAJASHEKAR P N</t>
+  </si>
+  <si>
+    <t>rajshekarpn3@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Quizer S Attar</t>
+  </si>
+  <si>
+    <t>quizer7863@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivek MP</t>
+  </si>
+  <si>
+    <t>vivekmp1949@gmail.com</t>
+  </si>
+  <si>
+    <t>Rithul</t>
+  </si>
+  <si>
+    <t>rithult2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Aftab Choudhari</t>
+  </si>
+  <si>
+    <t>aftabchoudhari4746@gmail.com</t>
+  </si>
+  <si>
+    <t>Lingaraju h l</t>
+  </si>
+  <si>
+    <t>gowthamhl1201@gmail.com</t>
+  </si>
+  <si>
+    <t>Thrupthi</t>
+  </si>
+  <si>
+    <t>acharyathrupthi8@gmail.com</t>
+  </si>
+  <si>
+    <t>Samriddhi</t>
+  </si>
+  <si>
+    <t>s12573909@gmail.com</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -7107,7 +7377,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7405,7 +7726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G763"/>
+  <dimension ref="A1:G807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24960,7 +25281,1020 @@
         <v>13</v>
       </c>
     </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E764" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F764" t="s">
+        <v>18</v>
+      </c>
+      <c r="G764" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D765" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E765" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F765" t="s">
+        <v>18</v>
+      </c>
+      <c r="G765" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D766" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E766" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F766" t="s">
+        <v>18</v>
+      </c>
+      <c r="G766" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D767" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E767" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F767" t="s">
+        <v>18</v>
+      </c>
+      <c r="G767" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E768" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F768" t="s">
+        <v>81</v>
+      </c>
+      <c r="G768" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E769" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F769" t="s">
+        <v>18</v>
+      </c>
+      <c r="G769" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E770" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F770" t="s">
+        <v>18</v>
+      </c>
+      <c r="G770" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E771" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F771" t="s">
+        <v>18</v>
+      </c>
+      <c r="G771" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E772" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F772" t="s">
+        <v>18</v>
+      </c>
+      <c r="G772" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F773" t="s">
+        <v>18</v>
+      </c>
+      <c r="G773" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E774" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F774" t="s">
+        <v>18</v>
+      </c>
+      <c r="G774" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E775" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F775" t="s">
+        <v>18</v>
+      </c>
+      <c r="G775" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E776" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F776" t="s">
+        <v>18</v>
+      </c>
+      <c r="G776" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E777" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F777" t="s">
+        <v>55</v>
+      </c>
+      <c r="G777" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D778" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E778" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F778" t="s">
+        <v>18</v>
+      </c>
+      <c r="G778" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E779" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F779" t="s">
+        <v>55</v>
+      </c>
+      <c r="G779" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D780" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E780" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F780" t="s">
+        <v>81</v>
+      </c>
+      <c r="G780" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D781" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E781" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F781" t="s">
+        <v>42</v>
+      </c>
+      <c r="G781" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F782" t="s">
+        <v>18</v>
+      </c>
+      <c r="G782" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F783" t="s">
+        <v>18</v>
+      </c>
+      <c r="G783" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E784" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F784" t="s">
+        <v>81</v>
+      </c>
+      <c r="G784" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F785" t="s">
+        <v>18</v>
+      </c>
+      <c r="G785" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D786" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E786" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F786" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G786" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E787" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F787" t="s">
+        <v>18</v>
+      </c>
+      <c r="G787" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E788" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F788" t="s">
+        <v>18</v>
+      </c>
+      <c r="G788" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E789" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F789" t="s">
+        <v>18</v>
+      </c>
+      <c r="G789" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E790" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F790" t="s">
+        <v>18</v>
+      </c>
+      <c r="G790" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E791" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F791" t="s">
+        <v>18</v>
+      </c>
+      <c r="G791" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F792" t="s">
+        <v>42</v>
+      </c>
+      <c r="G792" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F793" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G793" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F794" t="s">
+        <v>62</v>
+      </c>
+      <c r="G794" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F795" t="s">
+        <v>18</v>
+      </c>
+      <c r="G795" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F796" t="s">
+        <v>18</v>
+      </c>
+      <c r="G796" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D797" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F797" t="s">
+        <v>18</v>
+      </c>
+      <c r="G797" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D798" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F798" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G798" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E799" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F799" t="s">
+        <v>42</v>
+      </c>
+      <c r="G799" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F800" t="s">
+        <v>18</v>
+      </c>
+      <c r="G800" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F801" t="s">
+        <v>18</v>
+      </c>
+      <c r="G801" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F802" t="s">
+        <v>42</v>
+      </c>
+      <c r="G802" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D803" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F803" t="s">
+        <v>42</v>
+      </c>
+      <c r="G803" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F804" t="s">
+        <v>81</v>
+      </c>
+      <c r="G804" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D805" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F805" t="s">
+        <v>42</v>
+      </c>
+      <c r="G805" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F806" t="s">
+        <v>42</v>
+      </c>
+      <c r="G806" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D807" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E807" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F807" t="s">
+        <v>42</v>
+      </c>
+      <c r="G807" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>